--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2555.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2555.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.147076240613572</v>
+        <v>1.889831900596619</v>
       </c>
       <c r="B1">
-        <v>1.833295338265637</v>
+        <v>1.883208155632019</v>
       </c>
       <c r="C1">
-        <v>3.940601558584476</v>
+        <v>7.88377046585083</v>
       </c>
       <c r="D1">
-        <v>1.886679544362425</v>
+        <v>0.9500036835670471</v>
       </c>
       <c r="E1">
-        <v>0.8343235550632498</v>
+        <v>0.4147926270961761</v>
       </c>
     </row>
   </sheetData>
